--- a/src/test/ressources/xls/SECOND_COMMAND_SCORE.xlsx
+++ b/src/test/ressources/xls/SECOND_COMMAND_SCORE.xlsx
@@ -37,12 +37,32 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -57,8 +77,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -86,10 +110,10 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="n" s="1">
         <v>0.0</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" t="n" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -97,10 +121,10 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="n" s="3">
         <v>1.0</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" t="n" s="4">
         <v>0.0</v>
       </c>
     </row>
